--- a/dossier seo/audit-SEO (1).xlsx
+++ b/dossier seo/audit-SEO (1).xlsx
@@ -639,7 +639,14 @@
           <table:table-cell office:value-type="string">
             <text:p>les liens partenaires annuaires liste 1 et 2 ne fonctionnent pas </text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1021"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>oui</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>lighthouse</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
         </table:table-row>
         <table:table-row table:style-name="ro1" table:number-rows-repeated="980">
           <table:table-cell table:number-columns-repeated="1024"/>
@@ -659,12 +666,12 @@
 <file path=meta.xml><?xml version="1.0" encoding="utf-8"?>
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.2">
   <office:meta>
-    <dc:date>2021-09-12T23:23:54.67</dc:date>
+    <dc:date>2021-09-12T23:38:17.89</dc:date>
     <dc:creator>abdallah faouaz</dc:creator>
     <meta:generator>OpenOffice/4.1.10$Win32 OpenOffice.org_project/4110m2$Build-9807</meta:generator>
-    <meta:editing-duration>PT1H35M39S</meta:editing-duration>
-    <meta:editing-cycles>1</meta:editing-cycles>
-    <meta:document-statistic meta:table-count="1" meta:cell-count="123" meta:object-count="0"/>
+    <meta:editing-duration>PT1H50M2S</meta:editing-duration>
+    <meta:editing-cycles>2</meta:editing-cycles>
+    <meta:document-statistic meta:table-count="1" meta:cell-count="125" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -682,14 +689,14 @@
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Feuil1">
-              <config:config-item config:name="CursorPositionX" config:type="int">2</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">20</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">5</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">21</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
               <config:config-item config:name="VerticalSplitPosition" config:type="int">0</config:config-item>
               <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
-              <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionLeft" config:type="int">3</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
@@ -1120,7 +1127,7 @@
           <text:p>
             <text:date style:data-style-name="N2" text:date-value="2021-09-12">12/09/2021</text:date>
             , 
-            <text:time>23:23:55</text:time>
+            <text:time>23:38:18</text:time>
           </text:p>
         </style:region-right>
       </style:header>

--- a/dossier seo/audit-SEO (1).xlsx
+++ b/dossier seo/audit-SEO (1).xlsx
@@ -294,7 +294,7 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce5" office:value-type="string">
-            <text:p>oui </text:p>
+            <text:p>oui</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce4" office:value-type="string">
             <text:p>Visuel studio code + https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/6055231-allegez-les-pages-de-votre-site</text:p>
@@ -639,7 +639,9 @@
           <table:table-cell office:value-type="string">
             <text:p>les liens partenaires annuaires liste 1 et 2 ne fonctionnent pas </text:p>
           </table:table-cell>
-          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>supprimer les liens </text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="string">
             <text:p>oui</text:p>
           </table:table-cell>
@@ -666,12 +668,12 @@
 <file path=meta.xml><?xml version="1.0" encoding="utf-8"?>
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.2">
   <office:meta>
-    <dc:date>2021-09-12T23:38:17.89</dc:date>
+    <dc:date>2021-09-19T16:33:26.84</dc:date>
     <dc:creator>abdallah faouaz</dc:creator>
     <meta:generator>OpenOffice/4.1.10$Win32 OpenOffice.org_project/4110m2$Build-9807</meta:generator>
-    <meta:editing-duration>PT1H50M2S</meta:editing-duration>
-    <meta:editing-cycles>2</meta:editing-cycles>
-    <meta:document-statistic meta:table-count="1" meta:cell-count="125" meta:object-count="0"/>
+    <meta:editing-duration>PT2H40M54S</meta:editing-duration>
+    <meta:editing-cycles>3</meta:editing-cycles>
+    <meta:document-statistic meta:table-count="1" meta:cell-count="126" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -689,14 +691,14 @@
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Feuil1">
-              <config:config-item config:name="CursorPositionX" config:type="int">5</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">21</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">3</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">16</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
               <config:config-item config:name="VerticalSplitPosition" config:type="int">0</config:config-item>
               <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
-              <config:config-item config:name="PositionLeft" config:type="int">3</config:config-item>
+              <config:config-item config:name="PositionLeft" config:type="int">2</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
@@ -1125,9 +1127,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2021-09-12">12/09/2021</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2021-09-19">19/09/2021</text:date>
             , 
-            <text:time>23:38:18</text:time>
+            <text:time>16:33:26</text:time>
           </text:p>
         </style:region-right>
       </style:header>
